--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Apoe-Lrp8.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Apoe-Lrp8.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>81.892575438902</v>
+        <v>100.8373843333333</v>
       </c>
       <c r="H2">
-        <v>81.892575438902</v>
+        <v>302.512153</v>
       </c>
       <c r="I2">
-        <v>0.6700063583768269</v>
+        <v>0.6551985585448407</v>
       </c>
       <c r="J2">
-        <v>0.6700063583768269</v>
+        <v>0.6551985585448408</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.592063859366061</v>
+        <v>2.228108666666667</v>
       </c>
       <c r="N2">
-        <v>0.592063859366061</v>
+        <v>6.684326</v>
       </c>
       <c r="O2">
-        <v>0.53554260656538</v>
+        <v>0.5687849952918405</v>
       </c>
       <c r="P2">
-        <v>0.53554260656538</v>
+        <v>0.5687849952918405</v>
       </c>
       <c r="Q2">
-        <v>48.48563426778261</v>
+        <v>224.6766499570976</v>
       </c>
       <c r="R2">
-        <v>48.48563426778261</v>
+        <v>2022.089849613878</v>
       </c>
       <c r="S2">
-        <v>0.358816951580504</v>
+        <v>0.3726671090371478</v>
       </c>
       <c r="T2">
-        <v>0.358816951580504</v>
+        <v>0.3726671090371479</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>81.892575438902</v>
+        <v>100.8373843333333</v>
       </c>
       <c r="H3">
-        <v>81.892575438902</v>
+        <v>302.512153</v>
       </c>
       <c r="I3">
-        <v>0.6700063583768269</v>
+        <v>0.6551985585448407</v>
       </c>
       <c r="J3">
-        <v>0.6700063583768269</v>
+        <v>0.6551985585448408</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0935283390146721</v>
+        <v>0.1124773333333333</v>
       </c>
       <c r="N3">
-        <v>0.0935283390146721</v>
+        <v>0.337432</v>
       </c>
       <c r="O3">
-        <v>0.08459967564525735</v>
+        <v>0.02871288122861097</v>
       </c>
       <c r="P3">
-        <v>0.08459967564525735</v>
+        <v>0.02871288122861097</v>
       </c>
       <c r="Q3">
-        <v>7.659276558434236</v>
+        <v>11.34192009012178</v>
       </c>
       <c r="R3">
-        <v>7.659276558434236</v>
+        <v>102.077280811096</v>
       </c>
       <c r="S3">
-        <v>0.05668232059893961</v>
+        <v>0.01881263839265512</v>
       </c>
       <c r="T3">
-        <v>0.05668232059893961</v>
+        <v>0.01881263839265513</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>81.892575438902</v>
+        <v>100.8373843333333</v>
       </c>
       <c r="H4">
-        <v>81.892575438902</v>
+        <v>302.512153</v>
       </c>
       <c r="I4">
-        <v>0.6700063583768269</v>
+        <v>0.6551985585448407</v>
       </c>
       <c r="J4">
-        <v>0.6700063583768269</v>
+        <v>0.6551985585448408</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.41994796239783</v>
+        <v>1.576726666666667</v>
       </c>
       <c r="N4">
-        <v>0.41994796239783</v>
+        <v>4.73018</v>
       </c>
       <c r="O4">
-        <v>0.3798577177893626</v>
+        <v>0.4025021234795486</v>
       </c>
       <c r="P4">
-        <v>0.3798577177893626</v>
+        <v>0.4025021234795487</v>
       </c>
       <c r="Q4">
-        <v>34.39062019107747</v>
+        <v>158.9929928752822</v>
       </c>
       <c r="R4">
-        <v>34.39062019107747</v>
+        <v>1430.93693587754</v>
       </c>
       <c r="S4">
-        <v>0.2545070861973833</v>
+        <v>0.2637188111150377</v>
       </c>
       <c r="T4">
-        <v>0.2545070861973833</v>
+        <v>0.2637188111150378</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.049418834649</v>
+        <v>23.90796933333333</v>
       </c>
       <c r="H5">
-        <v>22.049418834649</v>
+        <v>71.72390799999999</v>
       </c>
       <c r="I5">
-        <v>0.1803979266563737</v>
+        <v>0.1553438454249564</v>
       </c>
       <c r="J5">
-        <v>0.1803979266563737</v>
+        <v>0.1553438454249564</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.592063859366061</v>
+        <v>2.228108666666667</v>
       </c>
       <c r="N5">
-        <v>0.592063859366061</v>
+        <v>6.684326</v>
       </c>
       <c r="O5">
-        <v>0.53554260656538</v>
+        <v>0.5687849952918405</v>
       </c>
       <c r="P5">
-        <v>0.53554260656538</v>
+        <v>0.5687849952918405</v>
       </c>
       <c r="Q5">
-        <v>13.054664012021</v>
+        <v>53.26955367400089</v>
       </c>
       <c r="R5">
-        <v>13.054664012021</v>
+        <v>479.425983066008</v>
       </c>
       <c r="S5">
-        <v>0.09661077586054463</v>
+        <v>0.08835724838865022</v>
       </c>
       <c r="T5">
-        <v>0.09661077586054463</v>
+        <v>0.08835724838865022</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.049418834649</v>
+        <v>23.90796933333333</v>
       </c>
       <c r="H6">
-        <v>22.049418834649</v>
+        <v>71.72390799999999</v>
       </c>
       <c r="I6">
-        <v>0.1803979266563737</v>
+        <v>0.1553438454249564</v>
       </c>
       <c r="J6">
-        <v>0.1803979266563737</v>
+        <v>0.1553438454249564</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0935283390146721</v>
+        <v>0.1124773333333333</v>
       </c>
       <c r="N6">
-        <v>0.0935283390146721</v>
+        <v>0.337432</v>
       </c>
       <c r="O6">
-        <v>0.08459967564525735</v>
+        <v>0.02871288122861097</v>
       </c>
       <c r="P6">
-        <v>0.08459967564525735</v>
+        <v>0.02871288122861097</v>
       </c>
       <c r="Q6">
-        <v>2.062245519843548</v>
+        <v>2.689104636028444</v>
       </c>
       <c r="R6">
-        <v>2.062245519843548</v>
+        <v>24.201941724256</v>
       </c>
       <c r="S6">
-        <v>0.01526160608220614</v>
+        <v>0.004460369383282475</v>
       </c>
       <c r="T6">
-        <v>0.01526160608220614</v>
+        <v>0.004460369383282476</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>22.049418834649</v>
+        <v>23.90796933333333</v>
       </c>
       <c r="H7">
-        <v>22.049418834649</v>
+        <v>71.72390799999999</v>
       </c>
       <c r="I7">
-        <v>0.1803979266563737</v>
+        <v>0.1553438454249564</v>
       </c>
       <c r="J7">
-        <v>0.1803979266563737</v>
+        <v>0.1553438454249564</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.41994796239783</v>
+        <v>1.576726666666667</v>
       </c>
       <c r="N7">
-        <v>0.41994796239783</v>
+        <v>4.73018</v>
       </c>
       <c r="O7">
-        <v>0.3798577177893626</v>
+        <v>0.4025021234795486</v>
       </c>
       <c r="P7">
-        <v>0.3798577177893626</v>
+        <v>0.4025021234795487</v>
       </c>
       <c r="Q7">
-        <v>9.259608511667183</v>
+        <v>37.69633279371555</v>
       </c>
       <c r="R7">
-        <v>9.259608511667183</v>
+        <v>339.2669951434399</v>
       </c>
       <c r="S7">
-        <v>0.06852554471362295</v>
+        <v>0.06252622765302372</v>
       </c>
       <c r="T7">
-        <v>0.06852554471362295</v>
+        <v>0.06252622765302372</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.2845703180103</v>
+        <v>29.15819666666667</v>
       </c>
       <c r="H8">
-        <v>18.2845703180103</v>
+        <v>87.47459000000001</v>
       </c>
       <c r="I8">
-        <v>0.1495957149667994</v>
+        <v>0.1894575960302029</v>
       </c>
       <c r="J8">
-        <v>0.1495957149667994</v>
+        <v>0.1894575960302029</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.592063859366061</v>
+        <v>2.228108666666667</v>
       </c>
       <c r="N8">
-        <v>0.592063859366061</v>
+        <v>6.684326</v>
       </c>
       <c r="O8">
-        <v>0.53554260656538</v>
+        <v>0.5687849952918405</v>
       </c>
       <c r="P8">
-        <v>0.53554260656538</v>
+        <v>0.5687849952918405</v>
       </c>
       <c r="Q8">
-        <v>10.8256332693313</v>
+        <v>64.96763069737112</v>
       </c>
       <c r="R8">
-        <v>10.8256332693313</v>
+        <v>584.70867627634</v>
       </c>
       <c r="S8">
-        <v>0.08011487912433136</v>
+        <v>0.1077606378660424</v>
       </c>
       <c r="T8">
-        <v>0.08011487912433136</v>
+        <v>0.1077606378660424</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.2845703180103</v>
+        <v>29.15819666666667</v>
       </c>
       <c r="H9">
-        <v>18.2845703180103</v>
+        <v>87.47459000000001</v>
       </c>
       <c r="I9">
-        <v>0.1495957149667994</v>
+        <v>0.1894575960302029</v>
       </c>
       <c r="J9">
-        <v>0.1495957149667994</v>
+        <v>0.1894575960302029</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.0935283390146721</v>
+        <v>0.1124773333333333</v>
       </c>
       <c r="N9">
-        <v>0.0935283390146721</v>
+        <v>0.337432</v>
       </c>
       <c r="O9">
-        <v>0.08459967564525735</v>
+        <v>0.02871288122861097</v>
       </c>
       <c r="P9">
-        <v>0.08459967564525735</v>
+        <v>0.02871288122861097</v>
       </c>
       <c r="Q9">
-        <v>1.710125491440478</v>
+        <v>3.279636205875555</v>
       </c>
       <c r="R9">
-        <v>1.710125491440478</v>
+        <v>29.51672585288</v>
       </c>
       <c r="S9">
-        <v>0.0126557489641116</v>
+        <v>0.005439873452673374</v>
       </c>
       <c r="T9">
-        <v>0.0126557489641116</v>
+        <v>0.005439873452673374</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.2845703180103</v>
+        <v>29.15819666666667</v>
       </c>
       <c r="H10">
-        <v>18.2845703180103</v>
+        <v>87.47459000000001</v>
       </c>
       <c r="I10">
-        <v>0.1495957149667994</v>
+        <v>0.1894575960302029</v>
       </c>
       <c r="J10">
-        <v>0.1495957149667994</v>
+        <v>0.1894575960302029</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.41994796239783</v>
+        <v>1.576726666666667</v>
       </c>
       <c r="N10">
-        <v>0.41994796239783</v>
+        <v>4.73018</v>
       </c>
       <c r="O10">
-        <v>0.3798577177893626</v>
+        <v>0.4025021234795486</v>
       </c>
       <c r="P10">
-        <v>0.3798577177893626</v>
+        <v>0.4025021234795487</v>
       </c>
       <c r="Q10">
-        <v>7.678568048368268</v>
+        <v>45.97450623624444</v>
       </c>
       <c r="R10">
-        <v>7.678568048368268</v>
+        <v>413.7705561262</v>
       </c>
       <c r="S10">
-        <v>0.05682508687835641</v>
+        <v>0.07625708471148718</v>
       </c>
       <c r="T10">
-        <v>0.05682508687835641</v>
+        <v>0.07625708471148719</v>
       </c>
     </row>
   </sheetData>
